--- a/Project175_A. E. Syme(2011).xlsx
+++ b/Project175_A. E. Syme(2011).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987A33EA-8EF2-624A-B7DA-82AFB15E64B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EF18A3-3394-4B9F-857C-B5C4D86A9507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="500" windowWidth="28040" windowHeight="16000" xr2:uid="{82CB97C3-56FC-3A46-9CD0-A600CD051AFF}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="15870" windowHeight="18585" xr2:uid="{82CB97C3-56FC-3A46-9CD0-A600CD051AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Project175" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="79">
   <si>
     <t>Charlabels</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>Ignored</t>
   </si>
 </sst>
 </file>
@@ -716,17 +719,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC19199-64C5-C04F-8A29-EA431CBC1322}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,7 +740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -748,7 +751,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -759,7 +762,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -770,7 +773,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -781,7 +784,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -792,7 +795,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -803,7 +806,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -814,7 +817,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -825,7 +828,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -836,7 +839,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -847,7 +850,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -858,7 +861,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -869,7 +872,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -880,7 +883,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -891,7 +894,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -902,7 +905,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -913,7 +916,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -924,7 +927,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -935,7 +938,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -946,7 +949,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -957,7 +960,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -968,7 +971,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -979,7 +982,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -990,7 +993,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1015,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1045,7 +1048,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1056,7 +1059,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1067,7 +1070,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1089,7 +1092,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1100,7 +1103,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1133,7 +1136,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1155,7 +1158,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1177,7 +1180,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1188,7 +1191,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1199,7 +1202,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1232,7 +1235,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1243,7 +1246,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1254,7 +1257,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1265,7 +1268,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1276,7 +1279,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1298,7 +1301,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1309,7 +1312,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1320,7 +1323,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1331,7 +1334,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1408,7 +1411,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1419,7 +1422,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1430,7 +1433,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1452,7 +1455,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1463,7 +1466,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1474,22 +1477,31 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
